--- a/vrp_experiment_output.xlsx
+++ b/vrp_experiment_output.xlsx
@@ -34,94 +34,94 @@
     <t>Distance</t>
   </si>
   <si>
-    <t>[ 0.  1.  2.  6.  9.  8. 10. 11. 12. 13. 16. 19. 20. 21.]</t>
-  </si>
-  <si>
-    <t>[ 0.  3.  4.  5.  7. 18. 17. 14. 15. 21.]</t>
-  </si>
-  <si>
-    <t>[ 0. 17. 18. 20. 21.]</t>
-  </si>
-  <si>
-    <t>[ 0. 12. 14. 13. 19. 21.]</t>
-  </si>
-  <si>
-    <t>[ 0.  3.  2.  8.  9. 10. 16. 21.]</t>
-  </si>
-  <si>
-    <t>[ 0.  1.  4.  5.  6.  7. 11. 15. 21.]</t>
-  </si>
-  <si>
-    <t>[ 0.  2.  8. 10. 11.  3.  5.  9. 15. 21.]</t>
-  </si>
-  <si>
-    <t>[ 0.  1.  4.  6.  7. 14. 13. 12. 16. 18. 17. 19. 20. 21.]</t>
-  </si>
-  <si>
-    <t>[ 0.  1.  4. 15. 14. 17. 20. 21.]</t>
-  </si>
-  <si>
-    <t>[ 0.  2.  5. 10. 12. 16. 19. 21.]</t>
-  </si>
-  <si>
-    <t>[ 0.  9. 13. 18. 21.]</t>
-  </si>
-  <si>
-    <t>[ 0.  3.  6.  7.  8. 11. 21.]</t>
-  </si>
-  <si>
-    <t>[ 0.  1.  3.  5.  6. 10. 14. 21.]</t>
-  </si>
-  <si>
-    <t>[ 0.  2.  4.  7. 12. 13. 11.  8.  9. 15. 16. 18. 17. 19. 20. 21.]</t>
-  </si>
-  <si>
-    <t>[ 0.  5. 11. 14. 15. 20. 21.]</t>
-  </si>
-  <si>
-    <t>[ 0.  2.  3.  4.  6. 12. 13. 16. 21.]</t>
-  </si>
-  <si>
-    <t>[ 0.  1.  8. 10. 21.]</t>
-  </si>
-  <si>
-    <t>[ 0.  7.  9. 17. 18. 19. 21.]</t>
-  </si>
-  <si>
-    <t>[ 0.  7.  8.  9. 16. 20. 19. 14. 17. 18. 21.]</t>
-  </si>
-  <si>
-    <t>[ 0.  1.  2.  3.  4.  5.  6. 10. 11. 12. 13. 15. 21.]</t>
-  </si>
-  <si>
-    <t>[ 0.  1.  2.  3.  4.  5. 11. 15. 21.]</t>
-  </si>
-  <si>
-    <t>[ 0. 14. 12. 17. 20. 21.]</t>
-  </si>
-  <si>
-    <t>[ 0.  7.  9. 10. 13. 21.]</t>
-  </si>
-  <si>
-    <t>[ 0.  6.  8. 16. 18. 19. 21.]</t>
-  </si>
-  <si>
-    <t>[ 0.  1.  2.  3.  4.  5.  7.  9. 11. 17. 21.]</t>
-  </si>
-  <si>
-    <t>[ 0.  6.  8. 10. 12. 13. 14. 15. 16. 18. 19. 20. 21.]</t>
-  </si>
-  <si>
-    <t>[ 0.  2.  4.  7. 10. 13. 15. 17. 21.]</t>
-  </si>
-  <si>
-    <t>[ 0.  3.  6. 14. 16. 19. 21.]</t>
-  </si>
-  <si>
-    <t>[ 0.  1.  5.  9. 21.]</t>
-  </si>
-  <si>
-    <t>[ 0.  8. 11. 12. 18. 20. 21.]</t>
+    <t>[ 0.  2.  3.  4.  5.  6.  7.  8. 10. 11. 13. 12. 14. 15. 19. 20. 21.]</t>
+  </si>
+  <si>
+    <t>[ 0.  1.  9. 16. 17. 18. 21.]</t>
+  </si>
+  <si>
+    <t>[ 0.  5.  7.  8. 10. 13. 21.]</t>
+  </si>
+  <si>
+    <t>[ 0.  4. 12. 19. 21.]</t>
+  </si>
+  <si>
+    <t>[ 0.  1.  2.  3.  6.  9. 11. 14. 17. 21.]</t>
+  </si>
+  <si>
+    <t>[ 0. 15. 16. 18. 20. 21.]</t>
+  </si>
+  <si>
+    <t>[ 0.  1.  3.  9. 11. 12. 13. 16. 18. 19. 21.]</t>
+  </si>
+  <si>
+    <t>[ 0.  2.  5.  4.  7.  6.  8. 10. 15. 17. 14. 20. 21.]</t>
+  </si>
+  <si>
+    <t>[ 0.  5. 11. 15. 16. 20. 21.]</t>
+  </si>
+  <si>
+    <t>[ 0.  4. 13. 14. 17. 21.]</t>
+  </si>
+  <si>
+    <t>[ 0.  8. 19. 21.]</t>
+  </si>
+  <si>
+    <t>[ 0.  1.  2.  3.  6.  7. 10.  9. 12. 18. 21.]</t>
+  </si>
+  <si>
+    <t>[ 0.  7.  8.  9. 10. 11. 14. 16. 15. 17. 19. 20. 21.]</t>
+  </si>
+  <si>
+    <t>[ 0.  6.  3.  1.  2.  4.  5. 12. 13. 18. 21.]</t>
+  </si>
+  <si>
+    <t>[ 0.  1.  6.  8. 12. 13. 17. 20. 21.]</t>
+  </si>
+  <si>
+    <t>[ 0.  2. 11.  7. 15. 19. 21.]</t>
+  </si>
+  <si>
+    <t>[ 0. 21.]</t>
+  </si>
+  <si>
+    <t>[ 0.  3.  4.  5.  9. 10. 14. 16. 18. 21.]</t>
+  </si>
+  <si>
+    <t>[ 0.  7. 19. 14. 13. 12. 11. 10. 17. 21.]</t>
+  </si>
+  <si>
+    <t>[ 0.  1.  2.  3.  4.  6.  5.  8.  9. 15. 16. 18. 20. 21.]</t>
+  </si>
+  <si>
+    <t>[ 0.  4. 20. 21.]</t>
+  </si>
+  <si>
+    <t>[ 0.  2. 10. 12. 16. 17. 18. 21.]</t>
+  </si>
+  <si>
+    <t>[ 0.  5.  8. 11. 13. 14. 21.]</t>
+  </si>
+  <si>
+    <t>[ 0.  1.  3.  6.  7.  9. 15. 19. 21.]</t>
+  </si>
+  <si>
+    <t>[ 0.  1.  2.  3.  4.  7. 11. 14. 15. 21.]</t>
+  </si>
+  <si>
+    <t>[ 0.  5.  6.  8.  9. 10. 12. 13. 16. 17. 18. 19. 20. 21.]</t>
+  </si>
+  <si>
+    <t>[ 0.  3.  7.  9. 10. 14. 15. 18. 19. 20. 21.]</t>
+  </si>
+  <si>
+    <t>[ 0.  4.  6.  8. 17. 21.]</t>
+  </si>
+  <si>
+    <t>[ 0.  2. 21.]</t>
+  </si>
+  <si>
+    <t>[ 0.  1.  5. 11. 12. 13. 16. 21.]</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -515,7 +515,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -550,7 +550,7 @@
         <v>29</v>
       </c>
       <c r="C2">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -561,7 +561,7 @@
         <v>30</v>
       </c>
       <c r="C3">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -572,7 +572,7 @@
         <v>31</v>
       </c>
       <c r="C4">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -583,7 +583,7 @@
         <v>32</v>
       </c>
       <c r="C5">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -618,7 +618,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -629,7 +629,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -640,7 +640,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -686,7 +686,7 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -697,7 +697,7 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -732,7 +732,7 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -800,7 +800,7 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>116</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -811,7 +811,7 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>118</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -846,7 +846,7 @@
         <v>17</v>
       </c>
       <c r="C2">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -857,7 +857,7 @@
         <v>18</v>
       </c>
       <c r="C3">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -868,7 +868,7 @@
         <v>19</v>
       </c>
       <c r="C4">
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -879,7 +879,7 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -914,7 +914,7 @@
         <v>21</v>
       </c>
       <c r="C2">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -925,7 +925,7 @@
         <v>22</v>
       </c>
       <c r="C3">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -960,7 +960,7 @@
         <v>23</v>
       </c>
       <c r="C2">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -971,7 +971,7 @@
         <v>24</v>
       </c>
       <c r="C3">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -993,7 +993,7 @@
         <v>26</v>
       </c>
       <c r="C5">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1028,7 +1028,7 @@
         <v>27</v>
       </c>
       <c r="C2">
-        <v>176</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1039,7 +1039,7 @@
         <v>28</v>
       </c>
       <c r="C3">
-        <v>180</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
